--- a/template/potem4.xlsx
+++ b/template/potem4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FFB432-22BE-7246-83B6-2453FA68D100}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8514DFBE-38A0-40E5-8C34-D8F36DD8D517}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="465" windowWidth="32520" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YX-949-951" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -493,8 +493,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -505,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,44 +605,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,22 +650,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,14 +662,76 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,31 +1048,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
@@ -1051,14 +1095,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
@@ -1081,14 +1125,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
@@ -1111,12 +1155,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
@@ -1139,14 +1183,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1169,16 +1213,16 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1201,14 +1245,14 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
@@ -1231,16 +1275,16 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
@@ -1263,16 +1307,16 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1295,12 +1339,12 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1323,14 +1367,14 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1353,16 +1397,16 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1385,22 +1429,22 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="33" customHeight="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1423,12 +1467,12 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1451,12 +1495,12 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1479,12 +1523,12 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1507,12 +1551,12 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1535,12 +1579,12 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1563,12 +1607,12 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1591,12 +1635,12 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1619,12 +1663,12 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1647,12 +1691,12 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1675,12 +1719,12 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1703,12 +1747,12 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1731,12 +1775,12 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1763,8 +1807,8 @@
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1791,8 +1835,8 @@
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1846,9 +1890,9 @@
       <c r="A29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19"/>
@@ -1874,9 +1918,9 @@
     </row>
     <row r="30" spans="1:26" ht="21.75" customHeight="1">
       <c r="A30" s="20"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
@@ -1901,12 +1945,12 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1930,9 +1974,9 @@
     </row>
     <row r="32" spans="1:26" ht="45.75" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
@@ -29062,6 +29106,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A31:F31"/>
@@ -29069,11 +29118,6 @@
     <mergeCell ref="E14:F25"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/template/potem4.xlsx
+++ b/template/potem4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8514DFBE-38A0-40E5-8C34-D8F36DD8D517}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52DBBA33-12DE-5A4C-809D-1B8F67F1F1CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="465" windowWidth="32520" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16640" yWindow="1900" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YX-949-951" sheetId="1" r:id="rId1"/>
@@ -26,28 +26,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>轩信时装</t>
-  </si>
-  <si>
-    <r>
-      <t>東莞市沙田鎮義沙村天宅东路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>號</t>
-    </r>
   </si>
   <si>
     <r>
@@ -128,10 +106,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> FAX:</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>E-MAIL:</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -176,6 +150,32 @@
     <t>注：</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>東莞市沙田鎮義沙村天宅东路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>號</t>
+    </r>
+  </si>
+  <si>
+    <t>FAX:</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -319,6 +319,19 @@
       <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -535,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,9 +618,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,7 +625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,49 +671,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,19 +689,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1049,30 +1065,30 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
@@ -1095,14 +1111,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>1</v>
+      <c r="A2" s="76" t="s">
+        <v>18</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
@@ -1125,14 +1141,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>2</v>
+      <c r="A3" s="55" t="s">
+        <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
@@ -1155,12 +1171,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
@@ -1183,14 +1199,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>10</v>
+      <c r="A5" s="27" t="s">
+        <v>9</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1213,16 +1229,16 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>11</v>
+      <c r="A6" s="27" t="s">
+        <v>10</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33" t="s">
-        <v>3</v>
+      <c r="B6" s="80"/>
+      <c r="C6" s="31" t="s">
+        <v>2</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1245,14 +1261,14 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>12</v>
+      <c r="A7" s="27" t="s">
+        <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
@@ -1275,16 +1291,16 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>13</v>
+      <c r="A8" s="27" t="s">
+        <v>19</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="35" t="s">
-        <v>14</v>
+      <c r="B8" s="80"/>
+      <c r="C8" s="33" t="s">
+        <v>12</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
@@ -1307,16 +1323,16 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>15</v>
+      <c r="A9" s="27" t="s">
+        <v>13</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="37" t="s">
-        <v>4</v>
+      <c r="B9" s="80"/>
+      <c r="C9" s="35" t="s">
+        <v>3</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1339,12 +1355,12 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1367,14 +1383,14 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A11" s="41" t="s">
-        <v>16</v>
+      <c r="A11" s="39" t="s">
+        <v>14</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1397,16 +1413,16 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A12" s="66" t="s">
-        <v>18</v>
+      <c r="A12" s="46" t="s">
+        <v>16</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68" t="s">
-        <v>17</v>
+      <c r="B12" s="47"/>
+      <c r="C12" s="59" t="s">
+        <v>15</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1429,22 +1445,22 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="33" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="D13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="E13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="77"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1467,12 +1483,12 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1495,12 +1511,12 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1523,12 +1539,12 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1551,12 +1567,12 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1579,12 +1595,12 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1607,12 +1623,12 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1635,12 +1651,12 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1663,12 +1679,12 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1691,12 +1707,12 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1719,12 +1735,12 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1747,12 +1763,12 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1775,12 +1791,12 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1807,8 +1823,8 @@
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1835,8 +1851,8 @@
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1888,11 +1904,11 @@
     </row>
     <row r="29" spans="1:26" ht="21.75" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19"/>
@@ -1918,9 +1934,9 @@
     </row>
     <row r="30" spans="1:26" ht="21.75" customHeight="1">
       <c r="A30" s="20"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="22"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
@@ -1945,12 +1961,12 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="49"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1974,9 +1990,9 @@
     </row>
     <row r="32" spans="1:26" ht="45.75" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="49"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
@@ -29106,11 +29122,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A31:F31"/>
@@ -29118,6 +29129,11 @@
     <mergeCell ref="E14:F25"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
